--- a/内部設計書/内部設計書_2_1_テスト画面.xlsx
+++ b/内部設計書/内部設計書_2_1_テスト画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\Sylph Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D34CB0-4F02-4804-8DDA-8B007C3DF6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFF3C0B-B303-4F40-9B76-47027ACEA38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="456" windowWidth="17712" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,19 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2.処理内容'!$1:$6</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'2.処理内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -395,7 +407,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Get</t>
+    <t>GET</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -406,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -461,6 +473,12 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -894,7 +912,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -969,7 +987,58 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,23 +1047,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1002,13 +1059,16 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,49 +1110,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1447,11 +1468,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8:AR8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BH30" sqref="BH30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="0.6640625" style="6"/>
     <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
@@ -1459,106 +1480,106 @@
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="52" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
-      <c r="BL1" s="53" t="s">
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="53"/>
-      <c r="BP1" s="54" t="s">
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="BQ1" s="54"/>
-      <c r="BR1" s="54"/>
-      <c r="BS1" s="54"/>
-      <c r="BT1" s="54"/>
-      <c r="BU1" s="54"/>
-      <c r="BV1" s="54"/>
-      <c r="BW1" s="54"/>
-      <c r="BX1" s="36" t="s">
+      <c r="BQ1" s="68"/>
+      <c r="BR1" s="68"/>
+      <c r="BS1" s="68"/>
+      <c r="BT1" s="68"/>
+      <c r="BU1" s="68"/>
+      <c r="BV1" s="68"/>
+      <c r="BW1" s="68"/>
+      <c r="BX1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="42"/>
-      <c r="CC1" s="42"/>
-      <c r="CD1" s="42"/>
-      <c r="CE1" s="42"/>
-      <c r="CF1" s="42"/>
-      <c r="CG1" s="42"/>
-      <c r="CH1" s="42"/>
-      <c r="CI1" s="42"/>
+      <c r="BY1" s="69"/>
+      <c r="BZ1" s="69"/>
+      <c r="CA1" s="69"/>
+      <c r="CB1" s="56"/>
+      <c r="CC1" s="56"/>
+      <c r="CD1" s="56"/>
+      <c r="CE1" s="56"/>
+      <c r="CF1" s="56"/>
+      <c r="CG1" s="56"/>
+      <c r="CH1" s="56"/>
+      <c r="CI1" s="56"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2498,106 +2519,106 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="2"/>
     </row>
-    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="45" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="46" t="s">
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="47">
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="61">
         <v>44691</v>
       </c>
-      <c r="BQ2" s="47"/>
-      <c r="BR2" s="47"/>
-      <c r="BS2" s="47"/>
-      <c r="BT2" s="47"/>
-      <c r="BU2" s="47"/>
-      <c r="BV2" s="47"/>
-      <c r="BW2" s="47"/>
-      <c r="BX2" s="48" t="s">
+      <c r="BQ2" s="61"/>
+      <c r="BR2" s="61"/>
+      <c r="BS2" s="61"/>
+      <c r="BT2" s="61"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="48"/>
-      <c r="BZ2" s="48"/>
-      <c r="CA2" s="48"/>
-      <c r="CB2" s="49"/>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="49"/>
-      <c r="CE2" s="49"/>
-      <c r="CF2" s="49"/>
-      <c r="CG2" s="49"/>
-      <c r="CH2" s="49"/>
-      <c r="CI2" s="49"/>
+      <c r="BY2" s="62"/>
+      <c r="BZ2" s="62"/>
+      <c r="CA2" s="62"/>
+      <c r="CB2" s="63"/>
+      <c r="CC2" s="63"/>
+      <c r="CD2" s="63"/>
+      <c r="CE2" s="63"/>
+      <c r="CF2" s="63"/>
+      <c r="CG2" s="63"/>
+      <c r="CH2" s="63"/>
+      <c r="CI2" s="63"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3537,7 +3558,7 @@
       <c r="AMJ2" s="1"/>
       <c r="AMK2" s="2"/>
     </row>
-    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -3625,102 +3646,102 @@
       <c r="CH3" s="27"/>
       <c r="CI3" s="27"/>
     </row>
-    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="66" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="57" t="s">
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="57"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="57"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="57"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
-      <c r="BP4" s="57"/>
-      <c r="BQ4" s="57"/>
-      <c r="BR4" s="57"/>
-      <c r="BS4" s="57"/>
-      <c r="BT4" s="57"/>
-      <c r="BU4" s="57"/>
-      <c r="BV4" s="57"/>
-      <c r="BW4" s="57"/>
-      <c r="BX4" s="57"/>
-      <c r="BY4" s="57"/>
-      <c r="BZ4" s="57"/>
-      <c r="CA4" s="57"/>
-      <c r="CB4" s="57"/>
-      <c r="CC4" s="57"/>
-      <c r="CD4" s="57"/>
-      <c r="CE4" s="57"/>
-      <c r="CF4" s="57"/>
-      <c r="CG4" s="57"/>
-      <c r="CH4" s="57"/>
-      <c r="CI4" s="57"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="33"/>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="33"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="33"/>
+      <c r="BF4" s="33"/>
+      <c r="BG4" s="33"/>
+      <c r="BH4" s="33"/>
+      <c r="BI4" s="33"/>
+      <c r="BJ4" s="33"/>
+      <c r="BK4" s="33"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="33"/>
+      <c r="BN4" s="33"/>
+      <c r="BO4" s="33"/>
+      <c r="BP4" s="33"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="33"/>
+      <c r="BS4" s="33"/>
+      <c r="BT4" s="33"/>
+      <c r="BU4" s="33"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="33"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="33"/>
+      <c r="CA4" s="33"/>
+      <c r="CB4" s="33"/>
+      <c r="CC4" s="33"/>
+      <c r="CD4" s="33"/>
+      <c r="CE4" s="33"/>
+      <c r="CF4" s="33"/>
+      <c r="CG4" s="33"/>
+      <c r="CH4" s="33"/>
+      <c r="CI4" s="33"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4660,102 +4681,102 @@
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
     </row>
-    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="58">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="67" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="68" t="s">
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="68"/>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="68"/>
-      <c r="AY5" s="68"/>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="68"/>
-      <c r="BB5" s="68"/>
-      <c r="BC5" s="68"/>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="68"/>
-      <c r="BF5" s="68"/>
-      <c r="BG5" s="68"/>
-      <c r="BH5" s="68"/>
-      <c r="BI5" s="68"/>
-      <c r="BJ5" s="68"/>
-      <c r="BK5" s="68"/>
-      <c r="BL5" s="68"/>
-      <c r="BM5" s="68"/>
-      <c r="BN5" s="68"/>
-      <c r="BO5" s="68"/>
-      <c r="BP5" s="68"/>
-      <c r="BQ5" s="68"/>
-      <c r="BR5" s="68"/>
-      <c r="BS5" s="68"/>
-      <c r="BT5" s="68"/>
-      <c r="BU5" s="68"/>
-      <c r="BV5" s="68"/>
-      <c r="BW5" s="68"/>
-      <c r="BX5" s="68"/>
-      <c r="BY5" s="68"/>
-      <c r="BZ5" s="68"/>
-      <c r="CA5" s="68"/>
-      <c r="CB5" s="68"/>
-      <c r="CC5" s="68"/>
-      <c r="CD5" s="68"/>
-      <c r="CE5" s="68"/>
-      <c r="CF5" s="68"/>
-      <c r="CG5" s="68"/>
-      <c r="CH5" s="68"/>
-      <c r="CI5" s="68"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="43"/>
+      <c r="BM5" s="43"/>
+      <c r="BN5" s="43"/>
+      <c r="BO5" s="43"/>
+      <c r="BP5" s="43"/>
+      <c r="BQ5" s="43"/>
+      <c r="BR5" s="43"/>
+      <c r="BS5" s="43"/>
+      <c r="BT5" s="43"/>
+      <c r="BU5" s="43"/>
+      <c r="BV5" s="43"/>
+      <c r="BW5" s="43"/>
+      <c r="BX5" s="43"/>
+      <c r="BY5" s="43"/>
+      <c r="BZ5" s="43"/>
+      <c r="CA5" s="43"/>
+      <c r="CB5" s="43"/>
+      <c r="CC5" s="43"/>
+      <c r="CD5" s="43"/>
+      <c r="CE5" s="43"/>
+      <c r="CF5" s="43"/>
+      <c r="CG5" s="43"/>
+      <c r="CH5" s="43"/>
+      <c r="CI5" s="43"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5695,7 +5716,7 @@
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
     </row>
-    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5783,202 +5804,202 @@
       <c r="CH6" s="5"/>
       <c r="CI6" s="5"/>
     </row>
-    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="55" t="s">
+    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="39" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="39" t="s">
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="57" t="s">
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="57"/>
-      <c r="BN7" s="57"/>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="57"/>
-      <c r="BQ7" s="57"/>
-      <c r="BR7" s="57"/>
-      <c r="BS7" s="57"/>
-      <c r="BT7" s="57"/>
-      <c r="BU7" s="57"/>
-      <c r="BV7" s="57"/>
-      <c r="BW7" s="57"/>
-      <c r="BX7" s="57"/>
-      <c r="BY7" s="57"/>
-      <c r="BZ7" s="57"/>
-      <c r="CA7" s="57"/>
-      <c r="CB7" s="57"/>
-      <c r="CC7" s="57"/>
-      <c r="CD7" s="57"/>
-      <c r="CE7" s="57"/>
-      <c r="CF7" s="57"/>
-      <c r="CG7" s="57"/>
-      <c r="CH7" s="57"/>
-      <c r="CI7" s="57"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="33"/>
+      <c r="BB7" s="33"/>
+      <c r="BC7" s="33"/>
+      <c r="BD7" s="33"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="33"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="33"/>
+      <c r="BM7" s="33"/>
+      <c r="BN7" s="33"/>
+      <c r="BO7" s="33"/>
+      <c r="BP7" s="33"/>
+      <c r="BQ7" s="33"/>
+      <c r="BR7" s="33"/>
+      <c r="BS7" s="33"/>
+      <c r="BT7" s="33"/>
+      <c r="BU7" s="33"/>
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="33"/>
+      <c r="CA7" s="33"/>
+      <c r="CB7" s="33"/>
+      <c r="CC7" s="33"/>
+      <c r="CD7" s="33"/>
+      <c r="CE7" s="33"/>
+      <c r="CF7" s="33"/>
+      <c r="CG7" s="33"/>
+      <c r="CH7" s="33"/>
+      <c r="CI7" s="33"/>
     </row>
-    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="58">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="59" t="s">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="69" t="s">
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="62" t="s">
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="62"/>
-      <c r="BF8" s="62"/>
-      <c r="BG8" s="62"/>
-      <c r="BH8" s="62"/>
-      <c r="BI8" s="62"/>
-      <c r="BJ8" s="62"/>
-      <c r="BK8" s="62"/>
-      <c r="BL8" s="62"/>
-      <c r="BM8" s="62"/>
-      <c r="BN8" s="62"/>
-      <c r="BO8" s="62"/>
-      <c r="BP8" s="62"/>
-      <c r="BQ8" s="62"/>
-      <c r="BR8" s="62"/>
-      <c r="BS8" s="62"/>
-      <c r="BT8" s="62"/>
-      <c r="BU8" s="62"/>
-      <c r="BV8" s="62"/>
-      <c r="BW8" s="62"/>
-      <c r="BX8" s="62"/>
-      <c r="BY8" s="62"/>
-      <c r="BZ8" s="62"/>
-      <c r="CA8" s="62"/>
-      <c r="CB8" s="62"/>
-      <c r="CC8" s="62"/>
-      <c r="CD8" s="62"/>
-      <c r="CE8" s="62"/>
-      <c r="CF8" s="62"/>
-      <c r="CG8" s="62"/>
-      <c r="CH8" s="62"/>
-      <c r="CI8" s="62"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="40"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
+      <c r="BD8" s="40"/>
+      <c r="BE8" s="40"/>
+      <c r="BF8" s="40"/>
+      <c r="BG8" s="40"/>
+      <c r="BH8" s="40"/>
+      <c r="BI8" s="40"/>
+      <c r="BJ8" s="40"/>
+      <c r="BK8" s="40"/>
+      <c r="BL8" s="40"/>
+      <c r="BM8" s="40"/>
+      <c r="BN8" s="40"/>
+      <c r="BO8" s="40"/>
+      <c r="BP8" s="40"/>
+      <c r="BQ8" s="40"/>
+      <c r="BR8" s="40"/>
+      <c r="BS8" s="40"/>
+      <c r="BT8" s="40"/>
+      <c r="BU8" s="40"/>
+      <c r="BV8" s="40"/>
+      <c r="BW8" s="40"/>
+      <c r="BX8" s="40"/>
+      <c r="BY8" s="40"/>
+      <c r="BZ8" s="40"/>
+      <c r="CA8" s="40"/>
+      <c r="CB8" s="40"/>
+      <c r="CC8" s="40"/>
+      <c r="CD8" s="40"/>
+      <c r="CE8" s="40"/>
+      <c r="CF8" s="40"/>
+      <c r="CG8" s="40"/>
+      <c r="CH8" s="40"/>
+      <c r="CI8" s="40"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -6917,7 +6938,7 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1025" ht="18" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -7943,7 +7964,7 @@
       <c r="AMI9" s="1"/>
       <c r="AMJ9" s="1"/>
     </row>
-    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1025" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -8973,7 +8994,7 @@
       <c r="AMI10" s="1"/>
       <c r="AMJ10" s="1"/>
     </row>
-    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1025" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -9999,7 +10020,7 @@
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
-    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1025" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -11029,7 +11050,7 @@
       <c r="AMI12" s="1"/>
       <c r="AMJ12" s="1"/>
     </row>
-    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -12055,7 +12076,7 @@
       <c r="AMI13" s="1"/>
       <c r="AMJ13" s="1"/>
     </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13081,202 +13102,202 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="55" t="s">
+    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="39" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="39" t="s">
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="57" t="s">
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="57"/>
-      <c r="AY15" s="57"/>
-      <c r="AZ15" s="57"/>
-      <c r="BA15" s="57"/>
-      <c r="BB15" s="57"/>
-      <c r="BC15" s="57"/>
-      <c r="BD15" s="57"/>
-      <c r="BE15" s="57"/>
-      <c r="BF15" s="57"/>
-      <c r="BG15" s="57"/>
-      <c r="BH15" s="57"/>
-      <c r="BI15" s="57"/>
-      <c r="BJ15" s="57"/>
-      <c r="BK15" s="57"/>
-      <c r="BL15" s="57"/>
-      <c r="BM15" s="57"/>
-      <c r="BN15" s="57"/>
-      <c r="BO15" s="57"/>
-      <c r="BP15" s="57"/>
-      <c r="BQ15" s="57"/>
-      <c r="BR15" s="57"/>
-      <c r="BS15" s="57"/>
-      <c r="BT15" s="57"/>
-      <c r="BU15" s="57"/>
-      <c r="BV15" s="57"/>
-      <c r="BW15" s="57"/>
-      <c r="BX15" s="57"/>
-      <c r="BY15" s="57"/>
-      <c r="BZ15" s="57"/>
-      <c r="CA15" s="57"/>
-      <c r="CB15" s="57"/>
-      <c r="CC15" s="57"/>
-      <c r="CD15" s="57"/>
-      <c r="CE15" s="57"/>
-      <c r="CF15" s="57"/>
-      <c r="CG15" s="57"/>
-      <c r="CH15" s="57"/>
-      <c r="CI15" s="57"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="33"/>
+      <c r="BB15" s="33"/>
+      <c r="BC15" s="33"/>
+      <c r="BD15" s="33"/>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="33"/>
+      <c r="BG15" s="33"/>
+      <c r="BH15" s="33"/>
+      <c r="BI15" s="33"/>
+      <c r="BJ15" s="33"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="33"/>
+      <c r="BM15" s="33"/>
+      <c r="BN15" s="33"/>
+      <c r="BO15" s="33"/>
+      <c r="BP15" s="33"/>
+      <c r="BQ15" s="33"/>
+      <c r="BR15" s="33"/>
+      <c r="BS15" s="33"/>
+      <c r="BT15" s="33"/>
+      <c r="BU15" s="33"/>
+      <c r="BV15" s="33"/>
+      <c r="BW15" s="33"/>
+      <c r="BX15" s="33"/>
+      <c r="BY15" s="33"/>
+      <c r="BZ15" s="33"/>
+      <c r="CA15" s="33"/>
+      <c r="CB15" s="33"/>
+      <c r="CC15" s="33"/>
+      <c r="CD15" s="33"/>
+      <c r="CE15" s="33"/>
+      <c r="CF15" s="33"/>
+      <c r="CG15" s="33"/>
+      <c r="CH15" s="33"/>
+      <c r="CI15" s="33"/>
     </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="58">
+      <c r="B16" s="34">
         <v>2</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="63" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="35" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="35" t="s">
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ16" s="64"/>
-      <c r="AK16" s="64"/>
-      <c r="AL16" s="64"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="64"/>
-      <c r="AO16" s="64"/>
-      <c r="AP16" s="64"/>
-      <c r="AQ16" s="64"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="62" t="s">
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="62"/>
-      <c r="BA16" s="62"/>
-      <c r="BB16" s="62"/>
-      <c r="BC16" s="62"/>
-      <c r="BD16" s="62"/>
-      <c r="BE16" s="62"/>
-      <c r="BF16" s="62"/>
-      <c r="BG16" s="62"/>
-      <c r="BH16" s="62"/>
-      <c r="BI16" s="62"/>
-      <c r="BJ16" s="62"/>
-      <c r="BK16" s="62"/>
-      <c r="BL16" s="62"/>
-      <c r="BM16" s="62"/>
-      <c r="BN16" s="62"/>
-      <c r="BO16" s="62"/>
-      <c r="BP16" s="62"/>
-      <c r="BQ16" s="62"/>
-      <c r="BR16" s="62"/>
-      <c r="BS16" s="62"/>
-      <c r="BT16" s="62"/>
-      <c r="BU16" s="62"/>
-      <c r="BV16" s="62"/>
-      <c r="BW16" s="62"/>
-      <c r="BX16" s="62"/>
-      <c r="BY16" s="62"/>
-      <c r="BZ16" s="62"/>
-      <c r="CA16" s="62"/>
-      <c r="CB16" s="62"/>
-      <c r="CC16" s="62"/>
-      <c r="CD16" s="62"/>
-      <c r="CE16" s="62"/>
-      <c r="CF16" s="62"/>
-      <c r="CG16" s="62"/>
-      <c r="CH16" s="62"/>
-      <c r="CI16" s="62"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="40"/>
+      <c r="AW16" s="40"/>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="40"/>
+      <c r="AZ16" s="40"/>
+      <c r="BA16" s="40"/>
+      <c r="BB16" s="40"/>
+      <c r="BC16" s="40"/>
+      <c r="BD16" s="40"/>
+      <c r="BE16" s="40"/>
+      <c r="BF16" s="40"/>
+      <c r="BG16" s="40"/>
+      <c r="BH16" s="40"/>
+      <c r="BI16" s="40"/>
+      <c r="BJ16" s="40"/>
+      <c r="BK16" s="40"/>
+      <c r="BL16" s="40"/>
+      <c r="BM16" s="40"/>
+      <c r="BN16" s="40"/>
+      <c r="BO16" s="40"/>
+      <c r="BP16" s="40"/>
+      <c r="BQ16" s="40"/>
+      <c r="BR16" s="40"/>
+      <c r="BS16" s="40"/>
+      <c r="BT16" s="40"/>
+      <c r="BU16" s="40"/>
+      <c r="BV16" s="40"/>
+      <c r="BW16" s="40"/>
+      <c r="BX16" s="40"/>
+      <c r="BY16" s="40"/>
+      <c r="BZ16" s="40"/>
+      <c r="CA16" s="40"/>
+      <c r="CB16" s="40"/>
+      <c r="CC16" s="40"/>
+      <c r="CD16" s="40"/>
+      <c r="CE16" s="40"/>
+      <c r="CF16" s="40"/>
+      <c r="CG16" s="40"/>
+      <c r="CH16" s="40"/>
+      <c r="CI16" s="40"/>
       <c r="CJ16" s="1"/>
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
@@ -14215,7 +14236,7 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row r="17" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1024" ht="18" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -15241,7 +15262,7 @@
       <c r="AMI17" s="1"/>
       <c r="AMJ17" s="1"/>
     </row>
-    <row r="18" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1024" ht="18" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -16271,7 +16292,7 @@
       <c r="AMI18" s="1"/>
       <c r="AMJ18" s="1"/>
     </row>
-    <row r="19" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1024" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -17297,76 +17318,76 @@
       <c r="AMI19" s="1"/>
       <c r="AMJ19" s="1"/>
     </row>
-    <row r="20" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1024" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="24"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31" t="s">
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="28" t="s">
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
-      <c r="AS20" s="33"/>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="33"/>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="33"/>
-      <c r="AY20" s="33"/>
-      <c r="AZ20" s="33"/>
-      <c r="BA20" s="33"/>
-      <c r="BB20" s="33"/>
-      <c r="BC20" s="33"/>
-      <c r="BD20" s="33"/>
-      <c r="BE20" s="33"/>
-      <c r="BF20" s="33"/>
-      <c r="BG20" s="33"/>
-      <c r="BH20" s="33"/>
-      <c r="BI20" s="33"/>
-      <c r="BJ20" s="33"/>
-      <c r="BK20" s="34"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="48"/>
+      <c r="BA20" s="48"/>
+      <c r="BB20" s="48"/>
+      <c r="BC20" s="48"/>
+      <c r="BD20" s="48"/>
+      <c r="BE20" s="48"/>
+      <c r="BF20" s="48"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="48"/>
+      <c r="BJ20" s="48"/>
+      <c r="BK20" s="49"/>
       <c r="BL20" s="24"/>
       <c r="BM20" s="24"/>
       <c r="BN20" s="24"/>
@@ -18329,76 +18350,76 @@
       <c r="AMI20" s="1"/>
       <c r="AMJ20" s="1"/>
     </row>
-    <row r="21" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1024" ht="18" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="24"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="35">
+      <c r="G21" s="36">
         <v>1</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35" t="s">
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="35" t="s">
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="33"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
-      <c r="AX21" s="33"/>
-      <c r="AY21" s="33"/>
-      <c r="AZ21" s="33"/>
-      <c r="BA21" s="33"/>
-      <c r="BB21" s="33"/>
-      <c r="BC21" s="33"/>
-      <c r="BD21" s="33"/>
-      <c r="BE21" s="33"/>
-      <c r="BF21" s="33"/>
-      <c r="BG21" s="33"/>
-      <c r="BH21" s="33"/>
-      <c r="BI21" s="33"/>
-      <c r="BJ21" s="33"/>
-      <c r="BK21" s="34"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="48"/>
+      <c r="BI21" s="48"/>
+      <c r="BJ21" s="48"/>
+      <c r="BK21" s="49"/>
       <c r="BL21" s="24"/>
       <c r="BM21" s="24"/>
       <c r="BN21" s="24"/>
@@ -19361,7 +19382,7 @@
       <c r="AMI21" s="1"/>
       <c r="AMJ21" s="1"/>
     </row>
-    <row r="22" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1024" ht="18" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -20387,7 +20408,7 @@
       <c r="AMI22" s="1"/>
       <c r="AMJ22" s="1"/>
     </row>
-    <row r="23" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1024" ht="18" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
@@ -21417,7 +21438,7 @@
       <c r="AMI23" s="1"/>
       <c r="AMJ23" s="1"/>
     </row>
-    <row r="24" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1024" ht="18" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
@@ -22443,7 +22464,7 @@
       <c r="AMI24" s="1"/>
       <c r="AMJ24" s="1"/>
     </row>
-    <row r="25" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -23469,7 +23490,7 @@
       <c r="AMI25" s="1"/>
       <c r="AMJ25" s="1"/>
     </row>
-    <row r="26" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -24495,202 +24516,202 @@
       <c r="AMI26" s="1"/>
       <c r="AMJ26" s="1"/>
     </row>
-    <row r="27" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="55" t="s">
+    <row r="27" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="39" t="s">
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="39" t="s">
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="57" t="s">
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
-      <c r="AW27" s="57"/>
-      <c r="AX27" s="57"/>
-      <c r="AY27" s="57"/>
-      <c r="AZ27" s="57"/>
-      <c r="BA27" s="57"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
-      <c r="BK27" s="57"/>
-      <c r="BL27" s="57"/>
-      <c r="BM27" s="57"/>
-      <c r="BN27" s="57"/>
-      <c r="BO27" s="57"/>
-      <c r="BP27" s="57"/>
-      <c r="BQ27" s="57"/>
-      <c r="BR27" s="57"/>
-      <c r="BS27" s="57"/>
-      <c r="BT27" s="57"/>
-      <c r="BU27" s="57"/>
-      <c r="BV27" s="57"/>
-      <c r="BW27" s="57"/>
-      <c r="BX27" s="57"/>
-      <c r="BY27" s="57"/>
-      <c r="BZ27" s="57"/>
-      <c r="CA27" s="57"/>
-      <c r="CB27" s="57"/>
-      <c r="CC27" s="57"/>
-      <c r="CD27" s="57"/>
-      <c r="CE27" s="57"/>
-      <c r="CF27" s="57"/>
-      <c r="CG27" s="57"/>
-      <c r="CH27" s="57"/>
-      <c r="CI27" s="57"/>
+      <c r="AT27" s="33"/>
+      <c r="AU27" s="33"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="33"/>
+      <c r="AX27" s="33"/>
+      <c r="AY27" s="33"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="33"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="33"/>
+      <c r="BD27" s="33"/>
+      <c r="BE27" s="33"/>
+      <c r="BF27" s="33"/>
+      <c r="BG27" s="33"/>
+      <c r="BH27" s="33"/>
+      <c r="BI27" s="33"/>
+      <c r="BJ27" s="33"/>
+      <c r="BK27" s="33"/>
+      <c r="BL27" s="33"/>
+      <c r="BM27" s="33"/>
+      <c r="BN27" s="33"/>
+      <c r="BO27" s="33"/>
+      <c r="BP27" s="33"/>
+      <c r="BQ27" s="33"/>
+      <c r="BR27" s="33"/>
+      <c r="BS27" s="33"/>
+      <c r="BT27" s="33"/>
+      <c r="BU27" s="33"/>
+      <c r="BV27" s="33"/>
+      <c r="BW27" s="33"/>
+      <c r="BX27" s="33"/>
+      <c r="BY27" s="33"/>
+      <c r="BZ27" s="33"/>
+      <c r="CA27" s="33"/>
+      <c r="CB27" s="33"/>
+      <c r="CC27" s="33"/>
+      <c r="CD27" s="33"/>
+      <c r="CE27" s="33"/>
+      <c r="CF27" s="33"/>
+      <c r="CG27" s="33"/>
+      <c r="CH27" s="33"/>
+      <c r="CI27" s="33"/>
     </row>
-    <row r="28" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="58">
+      <c r="B28" s="34">
         <v>3</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="63" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="35" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="35" t="s">
-        <v>26</v>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="36" t="s">
+        <v>30</v>
       </c>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="62" t="s">
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AT28" s="62"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="62"/>
-      <c r="AX28" s="62"/>
-      <c r="AY28" s="62"/>
-      <c r="AZ28" s="62"/>
-      <c r="BA28" s="62"/>
-      <c r="BB28" s="62"/>
-      <c r="BC28" s="62"/>
-      <c r="BD28" s="62"/>
-      <c r="BE28" s="62"/>
-      <c r="BF28" s="62"/>
-      <c r="BG28" s="62"/>
-      <c r="BH28" s="62"/>
-      <c r="BI28" s="62"/>
-      <c r="BJ28" s="62"/>
-      <c r="BK28" s="62"/>
-      <c r="BL28" s="62"/>
-      <c r="BM28" s="62"/>
-      <c r="BN28" s="62"/>
-      <c r="BO28" s="62"/>
-      <c r="BP28" s="62"/>
-      <c r="BQ28" s="62"/>
-      <c r="BR28" s="62"/>
-      <c r="BS28" s="62"/>
-      <c r="BT28" s="62"/>
-      <c r="BU28" s="62"/>
-      <c r="BV28" s="62"/>
-      <c r="BW28" s="62"/>
-      <c r="BX28" s="62"/>
-      <c r="BY28" s="62"/>
-      <c r="BZ28" s="62"/>
-      <c r="CA28" s="62"/>
-      <c r="CB28" s="62"/>
-      <c r="CC28" s="62"/>
-      <c r="CD28" s="62"/>
-      <c r="CE28" s="62"/>
-      <c r="CF28" s="62"/>
-      <c r="CG28" s="62"/>
-      <c r="CH28" s="62"/>
-      <c r="CI28" s="62"/>
+      <c r="AT28" s="40"/>
+      <c r="AU28" s="40"/>
+      <c r="AV28" s="40"/>
+      <c r="AW28" s="40"/>
+      <c r="AX28" s="40"/>
+      <c r="AY28" s="40"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="40"/>
+      <c r="BB28" s="40"/>
+      <c r="BC28" s="40"/>
+      <c r="BD28" s="40"/>
+      <c r="BE28" s="40"/>
+      <c r="BF28" s="40"/>
+      <c r="BG28" s="40"/>
+      <c r="BH28" s="40"/>
+      <c r="BI28" s="40"/>
+      <c r="BJ28" s="40"/>
+      <c r="BK28" s="40"/>
+      <c r="BL28" s="40"/>
+      <c r="BM28" s="40"/>
+      <c r="BN28" s="40"/>
+      <c r="BO28" s="40"/>
+      <c r="BP28" s="40"/>
+      <c r="BQ28" s="40"/>
+      <c r="BR28" s="40"/>
+      <c r="BS28" s="40"/>
+      <c r="BT28" s="40"/>
+      <c r="BU28" s="40"/>
+      <c r="BV28" s="40"/>
+      <c r="BW28" s="40"/>
+      <c r="BX28" s="40"/>
+      <c r="BY28" s="40"/>
+      <c r="BZ28" s="40"/>
+      <c r="CA28" s="40"/>
+      <c r="CB28" s="40"/>
+      <c r="CC28" s="40"/>
+      <c r="CD28" s="40"/>
+      <c r="CE28" s="40"/>
+      <c r="CF28" s="40"/>
+      <c r="CG28" s="40"/>
+      <c r="CH28" s="40"/>
+      <c r="CI28" s="40"/>
       <c r="CJ28" s="1"/>
       <c r="CK28" s="1"/>
       <c r="CL28" s="1"/>
@@ -25629,7 +25650,7 @@
       <c r="AMI28" s="1"/>
       <c r="AMJ28" s="1"/>
     </row>
-    <row r="29" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1024" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -26655,7 +26676,7 @@
       <c r="AMI29" s="1"/>
       <c r="AMJ29" s="1"/>
     </row>
-    <row r="30" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1024" ht="18" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
@@ -27685,7 +27706,7 @@
       <c r="AMI30" s="1"/>
       <c r="AMJ30" s="1"/>
     </row>
-    <row r="31" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1024" ht="18" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -28713,7 +28734,7 @@
       <c r="AMI31" s="1"/>
       <c r="AMJ31" s="1"/>
     </row>
-    <row r="32" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1024" ht="18" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -29739,78 +29760,78 @@
       <c r="AMI32" s="1"/>
       <c r="AMJ32" s="1"/>
     </row>
-    <row r="33" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1024" ht="18" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="D33" s="24"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37" t="s">
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="31" t="s">
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="38"/>
-      <c r="AL33" s="31" t="s">
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="32"/>
-      <c r="AW33" s="29"/>
-      <c r="AX33" s="29"/>
-      <c r="AY33" s="29"/>
-      <c r="AZ33" s="29"/>
-      <c r="BA33" s="29"/>
-      <c r="BB33" s="29"/>
-      <c r="BC33" s="29"/>
-      <c r="BD33" s="29"/>
-      <c r="BE33" s="29"/>
-      <c r="BF33" s="29"/>
-      <c r="BG33" s="29"/>
-      <c r="BH33" s="29"/>
-      <c r="BI33" s="29"/>
-      <c r="BJ33" s="29"/>
-      <c r="BK33" s="30"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="46"/>
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="46"/>
+      <c r="BC33" s="46"/>
+      <c r="BD33" s="46"/>
+      <c r="BE33" s="46"/>
+      <c r="BF33" s="46"/>
+      <c r="BG33" s="46"/>
+      <c r="BH33" s="46"/>
+      <c r="BI33" s="46"/>
+      <c r="BJ33" s="46"/>
+      <c r="BK33" s="47"/>
       <c r="BL33" s="24"/>
       <c r="BM33" s="24"/>
       <c r="BN33" s="24"/>
@@ -30773,78 +30794,78 @@
       <c r="AMI33" s="1"/>
       <c r="AMJ33" s="1"/>
     </row>
-    <row r="34" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1024" ht="18" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="24"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63" t="s">
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="35" t="s">
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="35" t="s">
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="33"/>
-      <c r="AZ34" s="33"/>
-      <c r="BA34" s="33"/>
-      <c r="BB34" s="33"/>
-      <c r="BC34" s="33"/>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="33"/>
-      <c r="BF34" s="33"/>
-      <c r="BG34" s="33"/>
-      <c r="BH34" s="33"/>
-      <c r="BI34" s="33"/>
-      <c r="BJ34" s="33"/>
-      <c r="BK34" s="34"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="48"/>
+      <c r="AX34" s="48"/>
+      <c r="AY34" s="48"/>
+      <c r="AZ34" s="48"/>
+      <c r="BA34" s="48"/>
+      <c r="BB34" s="48"/>
+      <c r="BC34" s="48"/>
+      <c r="BD34" s="48"/>
+      <c r="BE34" s="48"/>
+      <c r="BF34" s="48"/>
+      <c r="BG34" s="48"/>
+      <c r="BH34" s="48"/>
+      <c r="BI34" s="48"/>
+      <c r="BJ34" s="48"/>
+      <c r="BK34" s="49"/>
       <c r="BL34" s="24"/>
       <c r="BM34" s="24"/>
       <c r="BN34" s="24"/>
@@ -31807,7 +31828,7 @@
       <c r="AMI34" s="1"/>
       <c r="AMJ34" s="1"/>
     </row>
-    <row r="35" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1024" ht="18" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
@@ -32833,7 +32854,7 @@
       <c r="AMI35" s="1"/>
       <c r="AMJ35" s="1"/>
     </row>
-    <row r="36" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1024" ht="18" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
@@ -33859,7 +33880,7 @@
       <c r="AMI36" s="1"/>
       <c r="AMJ36" s="1"/>
     </row>
-    <row r="37" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1024" ht="18" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
@@ -34889,7 +34910,7 @@
       <c r="AMI37" s="1"/>
       <c r="AMJ37" s="1"/>
     </row>
-    <row r="38" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -35917,46 +35938,14 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AH15"/>
-    <mergeCell ref="AI15:AR15"/>
-    <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AH16"/>
-    <mergeCell ref="AI16:AR16"/>
-    <mergeCell ref="AS16:CI16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:X27"/>
-    <mergeCell ref="Y28:AH28"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="AI28:AR28"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="AS27:CI27"/>
-    <mergeCell ref="AL33:BK33"/>
-    <mergeCell ref="E28:X28"/>
-    <mergeCell ref="AS28:CI28"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="AA34:AK34"/>
-    <mergeCell ref="AL34:BK34"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="Y27:AH27"/>
-    <mergeCell ref="AI27:AR27"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:BK20"/>
+    <mergeCell ref="Y21:BK21"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -35970,19 +35959,51 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AI8:AR8"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:BK20"/>
-    <mergeCell ref="Y21:BK21"/>
+    <mergeCell ref="AS27:CI27"/>
+    <mergeCell ref="AL33:BK33"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="AS28:CI28"/>
+    <mergeCell ref="G34:P34"/>
+    <mergeCell ref="Q34:Z34"/>
+    <mergeCell ref="AA34:AK34"/>
+    <mergeCell ref="AL34:BK34"/>
+    <mergeCell ref="Y27:AH27"/>
+    <mergeCell ref="AI27:AR27"/>
     <mergeCell ref="G33:P33"/>
     <mergeCell ref="Q33:Z33"/>
     <mergeCell ref="AA33:AK33"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:X27"/>
+    <mergeCell ref="Y28:AH28"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="AI28:AR28"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AH16"/>
+    <mergeCell ref="AI16:AR16"/>
+    <mergeCell ref="AS16:CI16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AH15"/>
+    <mergeCell ref="AI15:AR15"/>
+    <mergeCell ref="AS15:CI15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
